--- a/downloaded_files/EECS112_Lecture-35289.xlsx
+++ b/downloaded_files/EECS112_Lecture-35289.xlsx
@@ -144,7 +144,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -730,7 +730,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS112_Lecture-35289.xlsx
+++ b/downloaded_files/EECS112_Lecture-35289.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -199,6 +199,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Hussein Abdulrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم وائل إسماعيل يوسف ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1220139</x:t>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1419,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45927.4485867245</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6774783565</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45906.6774783565</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6668789005</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6668789005</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1797,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35289.xlsx
+++ b/downloaded_files/EECS112_Lecture-35289.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,12 @@
   </x:si>
   <x:si>
     <x:t>Roaa Hamed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد خالد سيف الله محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1230321</x:t>
@@ -431,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1074,11 +1080,9 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45928.9668921296</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1101,16 +1105,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4185712963</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1133,16 +1137,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4185712963</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1165,16 +1169,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1197,16 +1201,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4142324074</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1229,16 +1233,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.4142324074</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1261,16 +1265,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1293,16 +1297,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1325,14 +1329,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.6746902431</x:v>
+        <x:v>45907.6648132755</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,11 +1366,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.6746902431</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,16 +1391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,16 +1423,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4485867245</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,16 +1455,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45927.4485867245</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,16 +1487,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,16 +1519,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45916.7063430903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,16 +1551,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6774783565</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,16 +1583,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.507978669</x:v>
+        <x:v>45906.6774783565</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,16 +1615,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.507978669</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,16 +1647,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,16 +1679,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,16 +1711,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,16 +1743,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,16 +1775,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6668789005</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1803,16 +1807,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6668789005</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1833,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Lecture-35289.xlsx
+++ b/downloaded_files/EECS112_Lecture-35289.xlsx
@@ -66,7 +66,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>2250008</x:t>
